--- a/stock_frame_new.xlsx
+++ b/stock_frame_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR\double\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61598BEE-D9D4-4B25-9545-A8E1491CD5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A078204-6B1B-4CE5-BF34-8C86795A4D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>매출액</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -192,13 +196,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,22 +243,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,155 +583,159 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.69921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="16" width="7.5" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.19921875" customWidth="1"/>
-    <col min="19" max="19" width="8.19921875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.19921875" customWidth="1"/>
-    <col min="21" max="21" width="8.19921875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.19921875" customWidth="1"/>
-    <col min="23" max="23" width="8.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="9" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.5" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.19921875" customWidth="1"/>
+    <col min="20" max="20" width="8.19921875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.19921875" customWidth="1"/>
+    <col min="22" max="22" width="8.19921875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.19921875" customWidth="1"/>
+    <col min="24" max="24" width="8.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2018</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>2019</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2018</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>2019</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2018</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>2019</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2018</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>2019</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2018</v>
       </c>
-      <c r="P1" s="3">
+      <c r="Q1" s="3">
         <v>2019</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="8">
+      <c r="S1" s="8">
         <v>2019</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="8">
+      <c r="U1" s="8">
         <v>2019</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="8">
+      <c r="W1" s="8">
         <v>2019</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="17"/>
+      <c r="W2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="10"/>
+      <c r="X2" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_frame_new.xlsx
+++ b/stock_frame_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR\double\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A078204-6B1B-4CE5-BF34-8C86795A4D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50CF9D-6547-4AA1-B06D-9A9634F0A6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>매출액</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>시가총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출증가율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +259,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,11 +278,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +601,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -596,23 +614,25 @@
     <col min="3" max="3" width="15.3984375" style="9" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" customWidth="1"/>
-    <col min="16" max="17" width="7.5" customWidth="1"/>
-    <col min="18" max="18" width="7.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.19921875" customWidth="1"/>
-    <col min="20" max="20" width="8.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2" customWidth="1"/>
+    <col min="12" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="2" customWidth="1"/>
+    <col min="15" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" customWidth="1"/>
+    <col min="18" max="19" width="7.5" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="2" customWidth="1"/>
     <col min="21" max="21" width="8.19921875" customWidth="1"/>
     <col min="22" max="22" width="8.19921875" style="2" customWidth="1"/>
     <col min="23" max="23" width="8.19921875" customWidth="1"/>
     <col min="24" max="24" width="8.19921875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.19921875" customWidth="1"/>
+    <col min="26" max="26" width="8.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
       <c r="D1" s="1">
         <v>2018</v>
@@ -623,43 +643,43 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1">
         <v>2018</v>
       </c>
-      <c r="H1" s="3">
+      <c r="J1" s="3">
         <v>2019</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="1">
         <v>2018</v>
       </c>
-      <c r="K1" s="3">
+      <c r="M1" s="3">
         <v>2019</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1">
+      <c r="O1" s="1">
         <v>2018</v>
       </c>
-      <c r="N1" s="3">
+      <c r="P1" s="3">
         <v>2019</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1">
+      <c r="R1" s="1">
         <v>2018</v>
       </c>
-      <c r="Q1" s="3">
-        <v>2019</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="8">
+      <c r="S1" s="3">
         <v>2019</v>
       </c>
       <c r="T1" s="3" t="s">
@@ -677,8 +697,14 @@
       <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="Y1" s="8">
+        <v>2019</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -688,54 +714,59 @@
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="16" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="16" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="17"/>
+      <c r="Z2" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="S2:T2"/>
+  <mergeCells count="9">
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
